--- a/scripts/Halfling.xlsx
+++ b/scripts/Halfling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="433">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1337,13 +1337,23 @@
   </si>
   <si>
     <t>vixen</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1448,61 +1458,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1524,6 +1536,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="21" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1800,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,6 +1830,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1829,6 +1845,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1842,6 +1862,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>63</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.1575</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -1866,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1879,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1892,7 +1916,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1905,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1918,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1931,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1944,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1957,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1970,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -1983,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -1996,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2009,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2022,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2035,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2048,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2061,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2074,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2087,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2100,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2113,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
@@ -2126,7 +2150,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -2139,7 +2163,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
@@ -2152,7 +2176,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
@@ -2165,7 +2189,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
@@ -2178,7 +2202,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
@@ -2191,7 +2215,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
@@ -2204,7 +2228,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
@@ -2217,7 +2241,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
@@ -2230,7 +2254,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
@@ -2243,7 +2267,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
@@ -2256,7 +2280,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
@@ -2269,7 +2293,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
@@ -2282,7 +2306,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
@@ -2295,7 +2319,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
@@ -2308,7 +2332,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
@@ -2321,7 +2345,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
@@ -2334,7 +2358,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
@@ -2347,7 +2371,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
@@ -2360,7 +2384,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
@@ -2373,7 +2397,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
@@ -2386,7 +2410,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
@@ -2399,7 +2423,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
@@ -2412,7 +2436,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
@@ -2425,7 +2449,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
@@ -2438,7 +2462,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
@@ -2451,7 +2475,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
@@ -2464,7 +2488,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
@@ -2477,7 +2501,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
@@ -2490,7 +2514,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
@@ -2503,7 +2527,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
@@ -2516,7 +2540,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
@@ -2529,7 +2553,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
@@ -2542,7 +2566,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
@@ -2555,7 +2579,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
@@ -2568,7 +2592,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
@@ -2581,7 +2605,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
@@ -2594,7 +2618,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
@@ -2607,7 +2631,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
@@ -2620,7 +2644,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
@@ -2633,7 +2657,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
@@ -2646,7 +2670,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
@@ -2659,7 +2683,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
@@ -2672,7 +2696,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
@@ -2685,7 +2709,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
@@ -2698,7 +2722,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
@@ -2711,7 +2735,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
@@ -2724,7 +2748,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="10"/>
@@ -2737,7 +2761,7 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="9" t="str">
-        <f>IF(B73&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D73" s="10"/>
@@ -2750,7 +2774,7 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="9" t="str">
-        <f>IF(B74&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D74" s="10"/>
@@ -2763,7 +2787,7 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="9" t="str">
-        <f>IF(B75&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D75" s="10"/>
@@ -2776,7 +2800,7 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="9" t="str">
-        <f>IF(B76&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D76" s="10"/>
@@ -2789,7 +2813,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="9" t="str">
-        <f>IF(B77&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D77" s="10"/>
@@ -2802,7 +2826,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="9" t="str">
-        <f>IF(B78&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D78" s="10"/>
@@ -2815,7 +2839,7 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="9" t="str">
-        <f>IF(B79&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D79" s="10"/>
@@ -2828,7 +2852,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="9" t="str">
-        <f>IF(B80&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D80" s="10"/>
@@ -2841,7 +2865,7 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="9" t="str">
-        <f>IF(B81&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D81" s="10"/>
@@ -2854,7 +2878,7 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="9" t="str">
-        <f>IF(B82&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D82" s="7"/>
@@ -2867,7 +2891,7 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="9" t="str">
-        <f>IF(B83&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D83" s="7"/>
@@ -2880,7 +2904,7 @@
         <v>0.1</v>
       </c>
       <c r="C84" s="9" t="str">
-        <f>IF(B84&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D84" s="7"/>
@@ -2893,7 +2917,7 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="9" t="str">
-        <f>IF(B85&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D85" s="7"/>
@@ -2906,7 +2930,7 @@
         <v>0.1</v>
       </c>
       <c r="C86" s="9" t="str">
-        <f>IF(B86&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D86" s="7"/>
@@ -2919,7 +2943,7 @@
         <v>0.1</v>
       </c>
       <c r="C87" s="9" t="str">
-        <f>IF(B87&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D87" s="7"/>
@@ -2932,7 +2956,7 @@
         <v>0.1</v>
       </c>
       <c r="C88" s="9" t="str">
-        <f>IF(B88&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D88" s="7"/>
@@ -2947,10 +2971,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,15 +2983,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2978,8 +3005,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2991,12 +3022,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +3042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3015,11 +3050,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3027,11 +3062,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3039,11 +3074,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -3051,11 +3086,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -3063,11 +3098,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -3075,11 +3110,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3087,11 +3122,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3099,11 +3134,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3111,11 +3146,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3123,11 +3158,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3147,7 +3182,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3159,7 +3194,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3171,7 +3206,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3183,7 +3218,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3195,7 +3230,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3207,7 +3242,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3221,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3233,15 +3268,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3290,12 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3265,12 +3307,16 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3281,7 +3327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3289,11 +3335,11 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C23" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3301,11 +3347,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -3313,11 +3359,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3325,11 +3371,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -3337,11 +3383,11 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3349,11 +3395,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3361,11 +3407,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3373,11 +3419,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3385,11 +3431,11 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3397,11 +3443,11 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +3455,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3421,7 +3467,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3433,7 +3479,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3445,7 +3491,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3457,7 +3503,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3469,7 +3515,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3481,7 +3527,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3493,7 +3539,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3510,7 +3556,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,6 +3572,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -3538,6 +3587,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3551,6 +3604,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>31</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.31</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -3575,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C46" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3588,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3601,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3614,7 +3671,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3627,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3640,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3653,7 +3710,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3666,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3679,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -3692,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -3705,7 +3762,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3718,7 +3775,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3731,7 +3788,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -3744,7 +3801,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -3757,7 +3814,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -3770,7 +3827,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -3783,7 +3840,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -3796,7 +3853,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -3809,7 +3866,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -3822,7 +3879,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -3835,7 +3892,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -3848,7 +3905,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -3861,7 +3918,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -3874,7 +3931,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -3887,7 +3944,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -3900,7 +3957,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -3913,7 +3970,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -3926,7 +3983,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -3939,7 +3996,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -3952,7 +4009,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -3965,7 +4022,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -3978,7 +4035,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -3991,7 +4048,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -4004,7 +4061,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -4017,7 +4074,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -4030,7 +4087,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="7"/>
@@ -4043,7 +4100,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="7"/>
@@ -4056,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="7"/>
@@ -4069,7 +4126,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="7"/>
@@ -4082,7 +4139,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -4095,7 +4152,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -4169,7 +4226,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4185,6 +4242,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4197,6 +4257,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4210,6 +4274,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>44</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.30555555555555558</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -4234,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4247,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4260,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4273,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4286,7 +4354,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4299,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4312,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4325,7 +4393,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4338,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4351,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -4364,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -4377,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -4390,7 +4458,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
@@ -4403,7 +4471,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -4416,7 +4484,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
@@ -4429,7 +4497,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -4442,7 +4510,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
@@ -4455,7 +4523,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
@@ -4468,7 +4536,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
@@ -4481,7 +4549,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
@@ -4494,7 +4562,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -4507,7 +4575,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -4520,7 +4588,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -4533,7 +4601,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -4546,7 +4614,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -4559,7 +4627,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -4572,7 +4640,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -4585,7 +4653,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -4598,7 +4666,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -4611,7 +4679,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -4624,7 +4692,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -4637,7 +4705,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -4650,7 +4718,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -4663,7 +4731,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -4676,7 +4744,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -4689,7 +4757,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -4702,7 +4770,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -4715,7 +4783,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -4728,7 +4796,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -4741,7 +4809,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -4754,7 +4822,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -4767,7 +4835,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -4780,7 +4848,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -4793,7 +4861,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -4806,7 +4874,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -4819,7 +4887,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -4832,7 +4900,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -4845,7 +4913,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -4858,7 +4926,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -4871,7 +4939,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -4884,7 +4952,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -4897,7 +4965,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -4910,7 +4978,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -4923,7 +4991,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -4936,7 +5004,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -4949,7 +5017,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -4964,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4976,15 +5044,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4995,8 +5066,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5008,8 +5083,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -5028,11 +5107,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1,"common","rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -5040,11 +5119,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -5052,11 +5131,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -5064,11 +5143,11 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5076,11 +5155,11 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -5088,11 +5167,11 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -5100,11 +5179,11 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -5112,11 +5191,11 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>428</v>
       </c>
@@ -5128,7 +5207,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>427</v>
       </c>
@@ -5140,7 +5219,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>429</v>
       </c>
@@ -5185,7 +5264,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5194,15 +5273,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5213,8 +5295,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5226,11 +5312,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +5331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5249,11 +5339,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -5261,11 +5351,11 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -5273,11 +5363,11 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5285,11 +5375,11 @@
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>431</v>
       </c>
@@ -5297,11 +5387,11 @@
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5309,11 +5399,11 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -5321,19 +5411,19 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -5374,7 +5464,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5390,6 +5480,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5402,6 +5495,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5415,6 +5512,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>25</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -5439,7 +5540,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5452,7 +5553,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5465,7 +5566,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5478,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5491,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5504,7 +5605,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5517,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5530,7 +5631,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5543,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -5556,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -5569,7 +5670,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -5582,7 +5683,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -5595,7 +5696,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -5608,7 +5709,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -5621,7 +5722,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -5634,7 +5735,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -5647,7 +5748,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -5660,7 +5761,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -5673,7 +5774,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -5686,7 +5787,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -5699,7 +5800,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -5712,7 +5813,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -5725,7 +5826,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -5738,7 +5839,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -5751,7 +5852,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -5764,7 +5865,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -5777,7 +5878,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -5790,7 +5891,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
@@ -5803,7 +5904,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
@@ -5816,7 +5917,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
@@ -5829,7 +5930,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
@@ -5842,7 +5943,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="7"/>
@@ -5855,7 +5956,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="7"/>
@@ -5868,7 +5969,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="7"/>
@@ -5881,7 +5982,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="7"/>
@@ -6134,7 +6235,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6150,6 +6251,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6162,6 +6266,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6175,6 +6283,10 @@
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>55</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.38194444444444442</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -6199,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6212,7 +6324,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6225,7 +6337,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6238,7 +6350,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6251,7 +6363,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6264,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6277,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6290,7 +6402,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6303,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6316,7 +6428,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6329,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6342,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6355,7 +6467,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
@@ -6368,7 +6480,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -6381,7 +6493,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
@@ -6394,7 +6506,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -6407,7 +6519,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
@@ -6420,7 +6532,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
@@ -6433,7 +6545,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
@@ -6446,7 +6558,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
@@ -6459,7 +6571,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -6472,7 +6584,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -6485,7 +6597,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
@@ -6498,7 +6610,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
@@ -6511,7 +6623,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
@@ -6524,7 +6636,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
@@ -6537,7 +6649,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
@@ -6550,7 +6662,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -6563,7 +6675,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -6576,7 +6688,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -6589,7 +6701,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -6602,7 +6714,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
@@ -6615,7 +6727,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
@@ -6628,7 +6740,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
@@ -6641,7 +6753,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
@@ -6654,7 +6766,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
@@ -6667,7 +6779,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
@@ -6680,7 +6792,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
@@ -6693,7 +6805,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
@@ -6706,7 +6818,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
@@ -6719,7 +6831,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
@@ -6732,7 +6844,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
@@ -6745,7 +6857,7 @@
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
@@ -6758,7 +6870,7 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
@@ -6771,7 +6883,7 @@
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
@@ -6784,7 +6896,7 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
@@ -6797,7 +6909,7 @@
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
@@ -6810,7 +6922,7 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
@@ -6823,7 +6935,7 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
@@ -6836,7 +6948,7 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
@@ -6849,7 +6961,7 @@
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
@@ -6862,7 +6974,7 @@
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
@@ -6875,7 +6987,7 @@
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
@@ -6888,7 +7000,7 @@
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
@@ -6901,7 +7013,7 @@
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
@@ -6914,7 +7026,7 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
@@ -6927,7 +7039,7 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
@@ -6940,7 +7052,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
@@ -6953,7 +7065,7 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
@@ -6966,7 +7078,7 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
@@ -6979,7 +7091,7 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
@@ -6992,7 +7104,7 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f>IF(B67&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D67" s="2"/>
@@ -7005,7 +7117,7 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f>IF(B68&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D68" s="2"/>
@@ -7018,7 +7130,7 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f>IF(B69&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D69" s="2"/>
@@ -7031,7 +7143,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f>IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
@@ -7044,7 +7156,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f>IF(B71&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D71" s="2"/>
@@ -7057,7 +7169,7 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="9" t="str">
-        <f>IF(B72&gt;=1, "common", "rare")</f>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D72" s="2"/>
@@ -7134,7 +7246,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7150,6 +7262,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7162,6 +7277,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7175,6 +7294,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>3</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>4.6875E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7199,7 +7322,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -7212,7 +7335,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7225,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7238,7 +7361,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -7251,7 +7374,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -7264,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -7277,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -7290,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -7303,7 +7426,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="10"/>
@@ -7316,7 +7439,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="8"/>
@@ -7329,7 +7452,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7532,7 +7655,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7548,6 +7671,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7560,6 +7686,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7573,6 +7703,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>19</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -7597,7 +7731,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C34" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -7610,7 +7744,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -7623,7 +7757,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -7636,7 +7770,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -7649,7 +7783,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -7662,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -7675,7 +7809,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -7688,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -7701,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -7714,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -7727,7 +7861,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -7740,7 +7874,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -7753,7 +7887,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -7766,7 +7900,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -7779,7 +7913,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -7792,7 +7926,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -7805,7 +7939,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -7818,7 +7952,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
@@ -7831,7 +7965,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
@@ -7844,7 +7978,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
@@ -7857,7 +7991,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
@@ -7870,7 +8004,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -7883,7 +8017,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -7896,7 +8030,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -7909,7 +8043,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -7922,7 +8056,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -7935,7 +8069,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -7948,7 +8082,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -7961,7 +8095,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8079,7 +8213,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8095,6 +8229,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8107,6 +8244,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>10</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8120,6 +8261,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>32</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8144,7 +8289,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8157,7 +8302,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8170,7 +8315,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8183,7 +8328,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8196,7 +8341,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8209,7 +8354,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8222,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8235,7 +8380,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8248,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -8261,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -8274,7 +8419,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
@@ -8287,7 +8432,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
@@ -8300,7 +8445,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
@@ -8313,7 +8458,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
@@ -8326,7 +8471,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
@@ -8339,7 +8484,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
@@ -8352,7 +8497,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
@@ -8365,7 +8510,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
@@ -8378,7 +8523,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
@@ -8391,7 +8536,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
@@ -8404,7 +8549,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
@@ -8417,7 +8562,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
@@ -8430,7 +8575,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
@@ -8443,7 +8588,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
@@ -8456,7 +8601,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
@@ -8469,7 +8614,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
@@ -8482,7 +8627,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
@@ -8495,7 +8640,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
@@ -8508,7 +8653,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
@@ -8521,7 +8666,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="8"/>
@@ -8534,7 +8679,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="8"/>
@@ -8547,7 +8692,7 @@
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="8"/>
@@ -8560,7 +8705,7 @@
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
@@ -8573,7 +8718,7 @@
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
@@ -8586,7 +8731,7 @@
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
@@ -8599,7 +8744,7 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
@@ -8612,7 +8757,7 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
@@ -8625,7 +8770,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
@@ -8638,7 +8783,7 @@
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
@@ -8651,7 +8796,7 @@
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
@@ -8664,7 +8809,7 @@
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
@@ -8677,7 +8822,7 @@
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
@@ -8695,7 +8840,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8711,6 +8856,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8723,6 +8871,10 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>6</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8736,6 +8888,10 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>2</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -8760,7 +8916,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -8773,7 +8929,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -8786,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -8799,7 +8955,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -8812,7 +8968,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -8825,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -8838,7 +8994,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D12" s="7"/>
@@ -8851,7 +9007,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D13" s="7"/>
@@ -9001,7 +9157,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9017,6 +9173,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9029,6 +9188,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9042,6 +9205,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>23</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9066,7 +9233,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9079,7 +9246,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9092,7 +9259,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9105,7 +9272,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9118,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9131,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9144,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9157,7 +9324,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9170,7 +9337,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9183,7 +9350,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9196,7 +9363,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9209,7 +9376,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9222,7 +9389,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9235,7 +9402,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
@@ -9248,7 +9415,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9261,7 +9428,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
@@ -9274,7 +9441,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9287,7 +9454,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9300,7 +9467,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
@@ -9313,7 +9480,7 @@
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
@@ -9326,7 +9493,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
@@ -9339,7 +9506,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
@@ -9352,7 +9519,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
@@ -9365,7 +9532,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
@@ -9378,7 +9545,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
@@ -9391,7 +9558,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
@@ -9404,7 +9571,7 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
@@ -9417,7 +9584,7 @@
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
@@ -9430,7 +9597,7 @@
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
@@ -9443,7 +9610,7 @@
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
@@ -9456,7 +9623,7 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
@@ -9474,7 +9641,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9490,6 +9657,9 @@
       <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9502,6 +9672,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="15">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9515,6 +9689,10 @@
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
       </c>
+      <c r="D3" s="15">
+        <f>C3/B3</f>
+        <v>0.171875</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
@@ -9539,7 +9717,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9552,7 +9730,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9565,7 +9743,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -9578,7 +9756,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -9591,7 +9769,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -9604,7 +9782,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -9617,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -9630,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9643,7 +9821,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9656,7 +9834,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
@@ -9669,7 +9847,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -9682,7 +9860,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -9695,7 +9873,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
@@ -9708,7 +9886,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
@@ -9721,7 +9899,7 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
@@ -9734,7 +9912,7 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
@@ -9747,7 +9925,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
@@ -9760,7 +9938,7 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
@@ -9773,7 +9951,7 @@
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>

--- a/scripts/Halfling.xlsx
+++ b/scripts/Halfling.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.1575</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -1903,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -1916,7 +1916,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -1942,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="10"/>
@@ -1955,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="10"/>
@@ -1968,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="10"/>
@@ -1981,7 +1981,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="10"/>
@@ -1994,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="10"/>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="10"/>
@@ -2020,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="10"/>
@@ -2033,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="10"/>
@@ -2046,7 +2046,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D18" s="10"/>
@@ -2059,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D19" s="10"/>
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D20" s="10"/>
@@ -2085,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D21" s="10"/>
@@ -2098,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D22" s="10"/>
@@ -2111,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D23" s="10"/>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D24" s="10"/>
@@ -2137,833 +2137,748 @@
         <v>1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>411</v>
+        <v>172</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>404</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>391</v>
+        <v>114</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>397</v>
+      <c r="A46" s="11" t="s">
+        <v>361</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="B47" s="5">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="B48" s="5">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="B49" s="5">
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="B50" s="5">
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="B51" s="5">
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="B52" s="5">
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="B53" s="5">
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="B54" s="5">
         <v>0.1</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>361</v>
+      <c r="A55" t="s">
+        <v>377</v>
       </c>
       <c r="B55" s="5">
         <v>0.1</v>
       </c>
       <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="B56" s="5">
         <v>0.1</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B57" s="5">
         <v>0.1</v>
       </c>
       <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B58" s="5">
         <v>0.1</v>
       </c>
       <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B59" s="5">
         <v>0.1</v>
       </c>
       <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B60" s="5">
         <v>0.1</v>
       </c>
       <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B61" s="5">
         <v>0.1</v>
       </c>
       <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B62" s="5">
         <v>0.1</v>
       </c>
       <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B62&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>387</v>
       </c>
       <c r="B63" s="5">
         <v>0.1</v>
       </c>
       <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B63&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B64" s="5">
         <v>0.1</v>
       </c>
       <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B64&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>389</v>
       </c>
       <c r="B65" s="5">
         <v>0.1</v>
       </c>
       <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B65&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>118</v>
       </c>
       <c r="B66" s="5">
         <v>0.1</v>
       </c>
       <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B66&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B67" s="5">
         <v>0.1</v>
       </c>
       <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B67&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>380</v>
-      </c>
-      <c r="B68" s="5">
+        <v>416</v>
+      </c>
+      <c r="B68" s="4">
         <v>0.1</v>
       </c>
       <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B68&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>381</v>
-      </c>
-      <c r="B69" s="5">
+        <v>215</v>
+      </c>
+      <c r="B69" s="4">
         <v>0.1</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B69&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" s="5">
+        <v>159</v>
+      </c>
+      <c r="B70" s="4">
         <v>0.1</v>
       </c>
       <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f>IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>384</v>
-      </c>
-      <c r="B71" s="5">
+        <v>420</v>
+      </c>
+      <c r="B71" s="4">
         <v>0.1</v>
       </c>
       <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B71&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>385</v>
-      </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>386</v>
-      </c>
-      <c r="B74" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>387</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>388</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>389</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>394</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>396</v>
-      </c>
-      <c r="B79" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>401</v>
-      </c>
-      <c r="B80" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>402</v>
-      </c>
-      <c r="B81" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>403</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>416</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>420</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>424</v>
       </c>
-      <c r="B88" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A6:C88">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B87"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2974,7 +2889,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3259,7 +3174,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3556,7 +3471,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,11 +3517,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3632,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C46" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -3645,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -3658,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -3671,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -3684,7 +3599,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -3697,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -3710,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -3723,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -3736,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -3749,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
@@ -3762,7 +3677,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
@@ -3775,7 +3690,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
@@ -3788,373 +3703,321 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="5">
+        <v>94</v>
+      </c>
+      <c r="B19">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21">
+        <v>92</v>
+      </c>
+      <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="5">
+        <v>91</v>
+      </c>
+      <c r="B22">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24">
+        <v>86</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="5">
+        <v>77</v>
+      </c>
+      <c r="B26">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="5">
+        <v>74</v>
+      </c>
+      <c r="B29">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="5">
+        <v>58</v>
+      </c>
+      <c r="B34">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4215,7 +4078,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4226,7 +4089,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4272,11 +4135,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.30555555555555558</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4302,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -4315,7 +4178,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -4328,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -4341,7 +4204,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -4354,7 +4217,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -4367,7 +4230,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -4380,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -4393,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -4406,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -4419,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -4432,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -4445,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -4458,568 +4321,473 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
   </sheetData>
@@ -5035,7 +4803,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5081,11 +4849,11 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.33333333333333331</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,7 +4875,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1,"common","rare")</f>
+        <f>IF(B6&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -5119,7 +4887,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
@@ -5131,117 +4899,107 @@
         <v>0.1</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>430</v>
       </c>
       <c r="B11" s="4">
         <v>0.1</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B14" s="4">
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f>IF(B14&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="4">
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f>IF(B15&gt;=1,"common","rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>IF(B16&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>IF(B17&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5253,7 +5011,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C17">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5263,8 +5021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5464,7 +5222,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="B38" sqref="B6:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5510,11 +5268,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,7 +5298,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -5553,7 +5311,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -5566,7 +5324,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -5579,7 +5337,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -5592,7 +5350,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -5605,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -5618,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -5631,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -5644,7 +5402,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="7"/>
@@ -5657,334 +5415,289 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>335</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B23" s="5">
+        <v>337</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
+        <v>339</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="5">
+        <v>343</v>
+      </c>
+      <c r="B25" s="4">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" s="4">
+        <v>349</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="4">
+        <v>350</v>
+      </c>
+      <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="4">
+        <v>357</v>
+      </c>
+      <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6224,7 +5937,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C40">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6235,7 +5948,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6281,11 +5994,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.38194444444444442</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6311,7 +6024,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6324,7 +6037,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6337,7 +6050,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6350,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6363,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6376,7 +6089,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6389,7 +6102,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6402,7 +6115,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6415,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6428,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6441,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6454,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6467,7 +6180,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="2"/>
@@ -6480,698 +6193,603 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="B30" s="5">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="B35" s="5">
         <v>0.1</v>
       </c>
       <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B36" s="5">
         <v>0.1</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c r="B37" s="5">
         <v>0.1</v>
       </c>
       <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="B38" s="5">
         <v>0.1</v>
       </c>
       <c r="C38" s="9" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B39" s="5">
         <v>0.1</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B40" s="5">
         <v>0.1</v>
       </c>
       <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B41" s="5">
         <v>0.1</v>
       </c>
       <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B42" s="5">
         <v>0.1</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B43" s="5">
         <v>0.1</v>
       </c>
       <c r="C43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="B44" s="5">
         <v>0.1</v>
       </c>
       <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="B45" s="5">
         <v>0.1</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5">
         <v>0.1</v>
       </c>
       <c r="C46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="B47" s="5">
         <v>0.1</v>
       </c>
       <c r="C47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B48" s="5">
         <v>0.1</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="B49" s="5">
         <v>0.1</v>
       </c>
       <c r="C49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B50" s="5">
         <v>0.1</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5">
         <v>0.1</v>
       </c>
       <c r="C51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B52" s="5">
         <v>0.1</v>
       </c>
       <c r="C52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="B53" s="5">
         <v>0.1</v>
       </c>
       <c r="C53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B59" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B62" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B64" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B66" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B70" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B72" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7235,7 +6853,7 @@
     </row>
   </sheetData>
   <sortState ref="A6:C80">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7246,7 +6864,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7655,7 +7273,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8213,7 +7831,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8259,11 +7877,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8289,7 +7907,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="10"/>
@@ -8302,7 +7920,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="10"/>
@@ -8315,7 +7933,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="10"/>
@@ -8328,7 +7946,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="10"/>
@@ -8341,7 +7959,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -8354,7 +7972,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -8367,7 +7985,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -8380,7 +7998,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -8393,7 +8011,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -8406,430 +8024,362 @@
         <v>1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16">
+        <v>244</v>
+      </c>
+      <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23">
+        <v>217</v>
+      </c>
+      <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24">
+        <v>219</v>
+      </c>
+      <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
       </c>
       <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="B29" s="5">
         <v>0.1</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="5">
+        <v>243</v>
+      </c>
+      <c r="B30">
         <v>0.1</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B31" s="5">
         <v>0.1</v>
       </c>
       <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B32" s="5">
         <v>0.1</v>
       </c>
       <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="B33" s="5">
         <v>0.1</v>
       </c>
       <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B34" s="5">
         <v>0.1</v>
       </c>
       <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B47" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A6:C47">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8840,7 +8390,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9157,7 +8707,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9203,11 +8753,11 @@
       </c>
       <c r="C3" s="5">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="15">
         <f>C3/B3</f>
-        <v>0.359375</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9233,7 +8783,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="7"/>
@@ -9246,7 +8796,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="7"/>
@@ -9259,7 +8809,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="7"/>
@@ -9272,7 +8822,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="7"/>
@@ -9285,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="7"/>
@@ -9298,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="7"/>
@@ -9311,7 +8861,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="7"/>
@@ -9324,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="7"/>
@@ -9337,7 +8887,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="7"/>
@@ -9350,287 +8900,237 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9641,7 +9141,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
